--- a/files/30_11_2022/route_number_1.xlsx
+++ b/files/30_11_2022/route_number_1.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,1568 +435,1307 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>634697</v>
+        <v>609217</v>
       </c>
       <c r="B2">
-        <v>641549</v>
+        <v>634794</v>
       </c>
       <c r="C2">
-        <v>37.72948795</v>
+        <v>37.81401951</v>
       </c>
       <c r="D2">
-        <v>55.71527203</v>
+        <v>55.82385223</v>
       </c>
       <c r="E2">
-        <v>37.7296281</v>
+        <v>37.82618617</v>
       </c>
       <c r="F2">
-        <v>55.71746185</v>
+        <v>55.81712071</v>
       </c>
       <c r="G2">
-        <v>12.5</v>
+        <v>11.73</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>641549</v>
+        <v>634794</v>
       </c>
       <c r="B3">
-        <v>609123</v>
+        <v>634695</v>
       </c>
       <c r="C3">
-        <v>37.7296281</v>
+        <v>37.82618617</v>
       </c>
       <c r="D3">
-        <v>55.71746185</v>
+        <v>55.81712071</v>
       </c>
       <c r="E3">
-        <v>37.74439627</v>
+        <v>37.80485729</v>
       </c>
       <c r="F3">
-        <v>55.7186137</v>
+        <v>55.79986053</v>
       </c>
       <c r="G3">
-        <v>12.69</v>
+        <v>15.02</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3">
-        <v>2.69</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>609123</v>
+        <v>634695</v>
       </c>
       <c r="B4">
-        <v>605369</v>
+        <v>682286</v>
       </c>
       <c r="C4">
-        <v>37.74439627</v>
+        <v>37.80485729</v>
       </c>
       <c r="D4">
-        <v>55.7186137</v>
+        <v>55.79986053</v>
       </c>
       <c r="E4">
-        <v>37.75666804</v>
+        <v>37.79151688</v>
       </c>
       <c r="F4">
-        <v>55.71483407</v>
+        <v>55.80323285</v>
       </c>
       <c r="G4">
-        <v>12.69</v>
+        <v>11.51</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4">
-        <v>2.69</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>605369</v>
+        <v>682286</v>
       </c>
       <c r="B5">
-        <v>676401</v>
+        <v>677267</v>
       </c>
       <c r="C5">
-        <v>37.75666804</v>
+        <v>37.79151688</v>
       </c>
       <c r="D5">
-        <v>55.71483407</v>
+        <v>55.80323285</v>
       </c>
       <c r="E5">
-        <v>37.74274952</v>
+        <v>37.77120846</v>
       </c>
       <c r="F5">
-        <v>55.70392437</v>
+        <v>55.79053188</v>
       </c>
       <c r="G5">
-        <v>13.8</v>
+        <v>14.31</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5">
-        <v>3.800000000000001</v>
+        <v>4.309999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>676401</v>
+        <v>677267</v>
       </c>
       <c r="B6">
-        <v>636763</v>
+        <v>622415</v>
       </c>
       <c r="C6">
-        <v>37.74274952</v>
+        <v>37.77120846</v>
       </c>
       <c r="D6">
-        <v>55.70392437</v>
+        <v>55.79053188</v>
       </c>
       <c r="E6">
-        <v>37.74404589</v>
+        <v>37.86807749</v>
       </c>
       <c r="F6">
-        <v>55.69682058</v>
+        <v>55.82010325</v>
       </c>
       <c r="G6">
-        <v>13.09</v>
+        <v>18.2</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>3.09</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>636763</v>
+        <v>622415</v>
       </c>
       <c r="B7">
-        <v>609331</v>
+        <v>688247</v>
       </c>
       <c r="C7">
-        <v>37.74404589</v>
+        <v>37.86807749</v>
       </c>
       <c r="D7">
-        <v>55.69682058</v>
+        <v>55.82010325</v>
       </c>
       <c r="E7">
-        <v>37.7498971</v>
+        <v>37.85969922</v>
       </c>
       <c r="F7">
-        <v>55.68113269</v>
+        <v>55.75809184</v>
       </c>
       <c r="G7">
-        <v>13.84</v>
+        <v>20.62</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7">
-        <v>3.84</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>609331</v>
+        <v>688247</v>
       </c>
       <c r="B8">
-        <v>633142</v>
+        <v>683121</v>
       </c>
       <c r="C8">
-        <v>37.7498971</v>
+        <v>37.85969922</v>
       </c>
       <c r="D8">
-        <v>55.68113269</v>
+        <v>55.75809184</v>
       </c>
       <c r="E8">
-        <v>37.75546801</v>
+        <v>37.86025982</v>
       </c>
       <c r="F8">
-        <v>55.67748006</v>
+        <v>55.73958345</v>
       </c>
       <c r="G8">
-        <v>11.56</v>
+        <v>15.89</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="I8">
-        <v>1.56</v>
+        <v>5.890000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>633142</v>
+        <v>683121</v>
       </c>
       <c r="B9">
-        <v>609806</v>
+        <v>683117</v>
       </c>
       <c r="C9">
-        <v>37.75546801</v>
+        <v>37.86025982</v>
       </c>
       <c r="D9">
-        <v>55.67748006</v>
+        <v>55.73958345</v>
       </c>
       <c r="E9">
-        <v>37.75916881</v>
+        <v>37.82902856</v>
       </c>
       <c r="F9">
-        <v>55.67866257</v>
+        <v>55.72520069</v>
       </c>
       <c r="G9">
-        <v>10.74</v>
+        <v>16.33</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9">
-        <v>0.7400000000000002</v>
+        <v>6.329999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>609806</v>
+        <v>683117</v>
       </c>
       <c r="B10">
-        <v>609116</v>
+        <v>682235</v>
       </c>
       <c r="C10">
-        <v>37.75916881</v>
+        <v>37.82902856</v>
       </c>
       <c r="D10">
-        <v>55.67866257</v>
+        <v>55.72520069</v>
       </c>
       <c r="E10">
-        <v>37.74288455</v>
+        <v>37.82064591</v>
       </c>
       <c r="F10">
-        <v>55.67254872</v>
+        <v>55.73881263</v>
       </c>
       <c r="G10">
-        <v>11.96</v>
+        <v>14.21</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="I10">
-        <v>1.960000000000001</v>
+        <v>4.210000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>609116</v>
+        <v>682235</v>
       </c>
       <c r="B11">
-        <v>668122</v>
+        <v>634706</v>
       </c>
       <c r="C11">
-        <v>37.74288455</v>
+        <v>37.82064591</v>
       </c>
       <c r="D11">
-        <v>55.67254872</v>
+        <v>55.73881263</v>
       </c>
       <c r="E11">
-        <v>37.76573828</v>
+        <v>37.78895917</v>
       </c>
       <c r="F11">
-        <v>55.66994269</v>
+        <v>55.75010336</v>
       </c>
       <c r="G11">
-        <v>12.65</v>
+        <v>16.17</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>2.65</v>
+        <v>6.170000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>668122</v>
+        <v>634706</v>
       </c>
       <c r="B12">
-        <v>406596</v>
+        <v>682780</v>
       </c>
       <c r="C12">
-        <v>37.76573828</v>
+        <v>37.78895917</v>
       </c>
       <c r="D12">
-        <v>55.66994269</v>
+        <v>55.75010336</v>
       </c>
       <c r="E12">
-        <v>37.76219953</v>
+        <v>37.78075609</v>
       </c>
       <c r="F12">
-        <v>55.66249291</v>
+        <v>55.75203041</v>
       </c>
       <c r="G12">
-        <v>12.32</v>
+        <v>11.46</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="I12">
-        <v>2.32</v>
+        <v>1.460000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>406596</v>
+        <v>682780</v>
       </c>
       <c r="B13">
-        <v>634736</v>
+        <v>662905</v>
       </c>
       <c r="C13">
-        <v>37.76219953</v>
+        <v>37.78075609</v>
       </c>
       <c r="D13">
-        <v>55.66249291</v>
+        <v>55.75203041</v>
       </c>
       <c r="E13">
-        <v>37.74829853</v>
+        <v>37.79580894</v>
       </c>
       <c r="F13">
-        <v>55.65711032</v>
+        <v>55.71323112</v>
       </c>
       <c r="G13">
-        <v>11.02</v>
+        <v>20.22</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>1.02</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>634736</v>
+        <v>662905</v>
       </c>
       <c r="B14">
-        <v>636082</v>
+        <v>629724</v>
       </c>
       <c r="C14">
-        <v>37.74829853</v>
+        <v>37.79580894</v>
       </c>
       <c r="D14">
-        <v>55.65711032</v>
+        <v>55.71323112</v>
       </c>
       <c r="E14">
-        <v>37.75516582</v>
+        <v>37.79943966</v>
       </c>
       <c r="F14">
-        <v>55.65911182</v>
+        <v>55.70801058</v>
       </c>
       <c r="G14">
-        <v>12.47</v>
+        <v>11.7</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>2.470000000000001</v>
+        <v>1.699999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>636082</v>
+        <v>629724</v>
       </c>
       <c r="B15">
-        <v>634825</v>
+        <v>663163</v>
       </c>
       <c r="C15">
-        <v>37.75516582</v>
+        <v>37.79943966</v>
       </c>
       <c r="D15">
-        <v>55.65911182</v>
+        <v>55.70801058</v>
       </c>
       <c r="E15">
-        <v>37.76451636</v>
+        <v>37.81617867</v>
       </c>
       <c r="F15">
-        <v>55.65542416</v>
+        <v>55.70307034</v>
       </c>
       <c r="G15">
-        <v>11.71</v>
+        <v>13.01</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>1.710000000000001</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>634825</v>
+        <v>663163</v>
       </c>
       <c r="B16">
-        <v>672061</v>
+        <v>683122</v>
       </c>
       <c r="C16">
-        <v>37.76451636</v>
+        <v>37.81617867</v>
       </c>
       <c r="D16">
-        <v>55.65542416</v>
+        <v>55.70307034</v>
       </c>
       <c r="E16">
-        <v>37.75383027</v>
+        <v>37.8068763</v>
       </c>
       <c r="F16">
-        <v>55.64462933</v>
+        <v>55.69760016</v>
       </c>
       <c r="G16">
-        <v>12.78</v>
+        <v>11.86</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>2.779999999999999</v>
+        <v>1.859999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>672061</v>
+        <v>683122</v>
       </c>
       <c r="B17">
-        <v>636080</v>
+        <v>634761</v>
       </c>
       <c r="C17">
-        <v>37.75383027</v>
+        <v>37.8068763</v>
       </c>
       <c r="D17">
-        <v>55.64462933</v>
+        <v>55.69760016</v>
       </c>
       <c r="E17">
-        <v>37.74653791</v>
+        <v>37.77945972</v>
       </c>
       <c r="F17">
-        <v>55.64892038</v>
+        <v>55.69869069</v>
       </c>
       <c r="G17">
-        <v>15.11</v>
+        <v>13.34</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>5.109999999999999</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>636080</v>
+        <v>634761</v>
       </c>
       <c r="B18">
-        <v>609945</v>
+        <v>634756</v>
       </c>
       <c r="C18">
-        <v>37.74653791</v>
+        <v>37.77945972</v>
       </c>
       <c r="D18">
-        <v>55.64892038</v>
+        <v>55.69869069</v>
       </c>
       <c r="E18">
-        <v>37.73789687</v>
+        <v>37.73634651</v>
       </c>
       <c r="F18">
-        <v>55.65170146</v>
+        <v>55.69834737</v>
       </c>
       <c r="G18">
-        <v>11.76</v>
+        <v>12.7</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>1.76</v>
+        <v>2.699999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>609945</v>
+        <v>634756</v>
       </c>
       <c r="B19">
-        <v>664157</v>
+        <v>634697</v>
       </c>
       <c r="C19">
-        <v>37.73789687</v>
+        <v>37.73634651</v>
       </c>
       <c r="D19">
-        <v>55.65170146</v>
+        <v>55.69834737</v>
       </c>
       <c r="E19">
-        <v>37.72545867</v>
+        <v>37.72948795</v>
       </c>
       <c r="F19">
-        <v>55.64348086</v>
+        <v>55.71527203</v>
       </c>
       <c r="G19">
-        <v>12.8</v>
+        <v>14.22</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>2.800000000000001</v>
+        <v>4.219999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>664157</v>
+        <v>634697</v>
       </c>
       <c r="B20">
-        <v>636061</v>
+        <v>609850</v>
       </c>
       <c r="C20">
-        <v>37.72545867</v>
+        <v>37.72948795</v>
       </c>
       <c r="D20">
-        <v>55.64348086</v>
+        <v>55.71527203</v>
       </c>
       <c r="E20">
-        <v>37.71041897</v>
+        <v>37.72935656</v>
       </c>
       <c r="F20">
-        <v>55.64680064</v>
+        <v>55.69146427</v>
       </c>
       <c r="G20">
-        <v>12.21</v>
+        <v>15.46</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>2.210000000000001</v>
+        <v>5.460000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>636061</v>
+        <v>609850</v>
       </c>
       <c r="B21">
-        <v>639729</v>
+        <v>609956</v>
       </c>
       <c r="C21">
-        <v>37.71041897</v>
+        <v>37.72935656</v>
       </c>
       <c r="D21">
-        <v>55.64680064</v>
+        <v>55.69146427</v>
       </c>
       <c r="E21">
-        <v>37.71811839</v>
+        <v>37.73800636</v>
       </c>
       <c r="F21">
-        <v>55.6559322</v>
+        <v>55.68619118</v>
       </c>
       <c r="G21">
-        <v>13.84</v>
+        <v>13.63</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>3.84</v>
+        <v>3.629999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>639729</v>
+        <v>609956</v>
       </c>
       <c r="B22">
-        <v>660401</v>
+        <v>629726</v>
       </c>
       <c r="C22">
-        <v>37.71811839</v>
+        <v>37.73800636</v>
       </c>
       <c r="D22">
-        <v>55.6559322</v>
+        <v>55.68619118</v>
       </c>
       <c r="E22">
-        <v>37.741786</v>
+        <v>37.72933904</v>
       </c>
       <c r="F22">
-        <v>55.66050017</v>
+        <v>55.6536942</v>
       </c>
       <c r="G22">
-        <v>12.74</v>
+        <v>15.37</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>2.74</v>
+        <v>5.370000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>660401</v>
+        <v>629726</v>
       </c>
       <c r="B23">
-        <v>636078</v>
+        <v>619658</v>
       </c>
       <c r="C23">
-        <v>37.741786</v>
+        <v>37.72933904</v>
       </c>
       <c r="D23">
-        <v>55.66050017</v>
+        <v>55.6536942</v>
       </c>
       <c r="E23">
-        <v>37.74641966</v>
+        <v>37.70956889</v>
       </c>
       <c r="F23">
-        <v>55.65921255</v>
+        <v>55.63570824</v>
       </c>
       <c r="G23">
-        <v>12.84</v>
+        <v>19.88</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>2.84</v>
+        <v>9.880000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>636078</v>
+        <v>619658</v>
       </c>
       <c r="B24">
-        <v>693969</v>
+        <v>634754</v>
       </c>
       <c r="C24">
-        <v>37.74641966</v>
+        <v>37.70956889</v>
       </c>
       <c r="D24">
-        <v>55.65921255</v>
+        <v>55.63570824</v>
       </c>
       <c r="E24">
-        <v>37.75924515</v>
+        <v>37.72458712</v>
       </c>
       <c r="F24">
-        <v>55.62519327</v>
+        <v>55.6083342</v>
       </c>
       <c r="G24">
-        <v>17.4</v>
+        <v>18.55</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>7.399999999999999</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>693969</v>
+        <v>634754</v>
       </c>
       <c r="B25">
-        <v>661107</v>
+        <v>637514</v>
       </c>
       <c r="C25">
-        <v>37.75924515</v>
+        <v>37.72458712</v>
       </c>
       <c r="D25">
-        <v>55.62519327</v>
+        <v>55.6083342</v>
       </c>
       <c r="E25">
-        <v>37.73751584</v>
+        <v>37.72271701</v>
       </c>
       <c r="F25">
-        <v>55.61727306</v>
+        <v>55.59838364</v>
       </c>
       <c r="G25">
-        <v>14.46</v>
+        <v>12.62</v>
       </c>
       <c r="H25">
         <v>10</v>
       </c>
       <c r="I25">
-        <v>4.460000000000001</v>
+        <v>2.620000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>661107</v>
+        <v>637514</v>
       </c>
       <c r="B26">
-        <v>605394</v>
+        <v>634684</v>
       </c>
       <c r="C26">
-        <v>37.73751584</v>
+        <v>37.72271701</v>
       </c>
       <c r="D26">
-        <v>55.61727306</v>
+        <v>55.59838364</v>
       </c>
       <c r="E26">
-        <v>37.71864832</v>
+        <v>37.69348725</v>
       </c>
       <c r="F26">
-        <v>55.62081181</v>
+        <v>55.5850301</v>
       </c>
       <c r="G26">
-        <v>12.95</v>
+        <v>15.45</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
       <c r="I26">
-        <v>2.949999999999999</v>
+        <v>5.449999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>605394</v>
+        <v>634684</v>
       </c>
       <c r="B27">
-        <v>637526</v>
+        <v>607045</v>
       </c>
       <c r="C27">
-        <v>37.71864832</v>
+        <v>37.69348725</v>
       </c>
       <c r="D27">
-        <v>55.62081181</v>
+        <v>55.5850301</v>
       </c>
       <c r="E27">
-        <v>37.71675632</v>
+        <v>37.71408911</v>
       </c>
       <c r="F27">
-        <v>55.62411407</v>
+        <v>55.54772427</v>
       </c>
       <c r="G27">
-        <v>11.9</v>
+        <v>18.25</v>
       </c>
       <c r="H27">
         <v>10</v>
       </c>
       <c r="I27">
-        <v>1.9</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>637526</v>
+        <v>607045</v>
       </c>
       <c r="B28">
-        <v>680316</v>
+        <v>683733</v>
       </c>
       <c r="C28">
-        <v>37.71675632</v>
+        <v>37.71408911</v>
       </c>
       <c r="D28">
-        <v>55.62411407</v>
+        <v>55.54772427</v>
       </c>
       <c r="E28">
-        <v>37.72101771</v>
+        <v>37.72008091</v>
       </c>
       <c r="F28">
-        <v>55.62548052</v>
+        <v>55.54343251</v>
       </c>
       <c r="G28">
-        <v>11.44</v>
+        <v>13.43</v>
       </c>
       <c r="H28">
         <v>10</v>
       </c>
       <c r="I28">
-        <v>1.44</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>680316</v>
+        <v>683733</v>
       </c>
       <c r="B29">
-        <v>606016</v>
+        <v>608082</v>
       </c>
       <c r="C29">
-        <v>37.72101771</v>
+        <v>37.72008091</v>
       </c>
       <c r="D29">
-        <v>55.62548052</v>
+        <v>55.54343251</v>
       </c>
       <c r="E29">
-        <v>37.70607874</v>
+        <v>37.71903811</v>
       </c>
       <c r="F29">
-        <v>55.62289214</v>
+        <v>55.55167033</v>
       </c>
       <c r="G29">
-        <v>11.97</v>
+        <v>12.25</v>
       </c>
       <c r="H29">
         <v>10</v>
       </c>
       <c r="I29">
-        <v>1.970000000000001</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>606016</v>
+        <v>608082</v>
       </c>
       <c r="B30">
-        <v>619658</v>
+        <v>689138</v>
       </c>
       <c r="C30">
-        <v>37.70607874</v>
+        <v>37.71903811</v>
       </c>
       <c r="D30">
-        <v>55.62289214</v>
+        <v>55.55167033</v>
       </c>
       <c r="E30">
-        <v>37.70956889</v>
+        <v>37.66126619</v>
       </c>
       <c r="F30">
-        <v>55.63570824</v>
+        <v>55.53761167</v>
       </c>
       <c r="G30">
-        <v>14.33</v>
+        <v>19.93</v>
       </c>
       <c r="H30">
         <v>10</v>
       </c>
       <c r="I30">
-        <v>4.33</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>619658</v>
+        <v>689138</v>
       </c>
       <c r="B31">
-        <v>635784</v>
+        <v>616468</v>
       </c>
       <c r="C31">
-        <v>37.70956889</v>
+        <v>37.66126619</v>
       </c>
       <c r="D31">
-        <v>55.63570824</v>
+        <v>55.53761167</v>
       </c>
       <c r="E31">
-        <v>37.67011746</v>
+        <v>37.58813923</v>
       </c>
       <c r="F31">
-        <v>55.64478162</v>
+        <v>55.54777245</v>
       </c>
       <c r="G31">
-        <v>14.68</v>
+        <v>16.6</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
       <c r="I31">
-        <v>4.68</v>
+        <v>6.600000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>635784</v>
+        <v>616468</v>
       </c>
       <c r="B32">
-        <v>605390</v>
+        <v>637537</v>
       </c>
       <c r="C32">
-        <v>37.67011746</v>
+        <v>37.58813923</v>
       </c>
       <c r="D32">
-        <v>55.64478162</v>
+        <v>55.54777245</v>
       </c>
       <c r="E32">
-        <v>37.65734641</v>
+        <v>37.58575671</v>
       </c>
       <c r="F32">
-        <v>55.64234216</v>
+        <v>55.56245302</v>
       </c>
       <c r="G32">
-        <v>15.09</v>
+        <v>13.93</v>
       </c>
       <c r="H32">
         <v>10</v>
       </c>
       <c r="I32">
-        <v>5.09</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>605390</v>
+        <v>637537</v>
       </c>
       <c r="B33">
-        <v>607798</v>
+        <v>637523</v>
       </c>
       <c r="C33">
-        <v>37.65734641</v>
+        <v>37.58575671</v>
       </c>
       <c r="D33">
-        <v>55.64234216</v>
+        <v>55.56245302</v>
       </c>
       <c r="E33">
-        <v>37.65647924</v>
+        <v>37.55710944</v>
       </c>
       <c r="F33">
-        <v>55.62685135</v>
+        <v>55.54666002</v>
       </c>
       <c r="G33">
-        <v>14.77</v>
+        <v>15.78</v>
       </c>
       <c r="H33">
         <v>10</v>
       </c>
       <c r="I33">
-        <v>4.77</v>
+        <v>5.780000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>607798</v>
+        <v>637523</v>
       </c>
       <c r="B34">
-        <v>605368</v>
+        <v>406504</v>
       </c>
       <c r="C34">
-        <v>37.65647924</v>
+        <v>37.55710944</v>
       </c>
       <c r="D34">
-        <v>55.62685135</v>
+        <v>55.54666002</v>
       </c>
       <c r="E34">
-        <v>37.64892873</v>
+        <v>37.53927755</v>
       </c>
       <c r="F34">
-        <v>55.62299288</v>
+        <v>55.54571436</v>
       </c>
       <c r="G34">
-        <v>12.32</v>
+        <v>13.54</v>
       </c>
       <c r="H34">
         <v>10</v>
       </c>
       <c r="I34">
-        <v>2.32</v>
+        <v>3.539999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>605368</v>
+        <v>406504</v>
       </c>
       <c r="B35">
-        <v>688389</v>
+        <v>688383</v>
       </c>
       <c r="C35">
-        <v>37.64892873</v>
+        <v>37.53927755</v>
       </c>
       <c r="D35">
-        <v>55.62299288</v>
+        <v>55.54571436</v>
       </c>
       <c r="E35">
-        <v>37.64848638</v>
+        <v>37.52102991</v>
       </c>
       <c r="F35">
-        <v>55.6271623</v>
+        <v>55.533924</v>
       </c>
       <c r="G35">
-        <v>10.89</v>
+        <v>13.89</v>
       </c>
       <c r="H35">
         <v>10</v>
       </c>
       <c r="I35">
-        <v>0.8900000000000006</v>
+        <v>3.890000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>688389</v>
+        <v>688383</v>
       </c>
       <c r="B36">
-        <v>634767</v>
+        <v>699572</v>
       </c>
       <c r="C36">
-        <v>37.64848638</v>
+        <v>37.52102991</v>
       </c>
       <c r="D36">
-        <v>55.6271623</v>
+        <v>55.533924</v>
       </c>
       <c r="E36">
-        <v>37.67396717</v>
+        <v>37.56154602</v>
       </c>
       <c r="F36">
-        <v>55.63108208</v>
+        <v>55.5036913</v>
       </c>
       <c r="G36">
-        <v>13.16</v>
+        <v>19.64</v>
       </c>
       <c r="H36">
         <v>10</v>
       </c>
       <c r="I36">
-        <v>3.16</v>
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>634767</v>
+        <v>699572</v>
       </c>
       <c r="B37">
-        <v>634707</v>
+        <v>636462</v>
       </c>
       <c r="C37">
-        <v>37.67396717</v>
+        <v>37.56154602</v>
       </c>
       <c r="D37">
-        <v>55.63108208</v>
+        <v>55.5036913</v>
       </c>
       <c r="E37">
-        <v>37.66131875</v>
+        <v>37.581907</v>
       </c>
       <c r="F37">
-        <v>55.62367172</v>
+        <v>55.50582419</v>
       </c>
       <c r="G37">
-        <v>13.39</v>
+        <v>14.41</v>
       </c>
       <c r="H37">
         <v>10</v>
       </c>
       <c r="I37">
-        <v>3.390000000000001</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>634707</v>
+        <v>636462</v>
       </c>
       <c r="B38">
-        <v>699004</v>
+        <v>636404</v>
       </c>
       <c r="C38">
-        <v>37.66131875</v>
+        <v>37.581907</v>
       </c>
       <c r="D38">
-        <v>55.62367172</v>
+        <v>55.50582419</v>
       </c>
       <c r="E38">
-        <v>37.64558706</v>
+        <v>37.6146361</v>
       </c>
       <c r="F38">
-        <v>55.60795317</v>
+        <v>55.53170352</v>
       </c>
       <c r="G38">
-        <v>14.75</v>
+        <v>19.69</v>
       </c>
       <c r="H38">
         <v>10</v>
       </c>
       <c r="I38">
-        <v>4.75</v>
+        <v>9.689999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>699004</v>
+        <v>636404</v>
       </c>
       <c r="B39">
-        <v>658881</v>
+        <v>676995</v>
       </c>
       <c r="C39">
-        <v>37.64558706</v>
+        <v>37.6146361</v>
       </c>
       <c r="D39">
-        <v>55.60795317</v>
+        <v>55.53170352</v>
       </c>
       <c r="E39">
-        <v>37.65908951</v>
+        <v>37.69127991</v>
       </c>
       <c r="F39">
-        <v>55.60692395</v>
+        <v>55.51300243</v>
       </c>
       <c r="G39">
-        <v>11.88</v>
+        <v>20.46</v>
       </c>
       <c r="H39">
         <v>10</v>
       </c>
       <c r="I39">
-        <v>1.879999999999999</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>658881</v>
+        <v>676995</v>
       </c>
       <c r="B40">
-        <v>645473</v>
+        <v>622314</v>
       </c>
       <c r="C40">
-        <v>37.65908951</v>
+        <v>37.69127991</v>
       </c>
       <c r="D40">
-        <v>55.60692395</v>
+        <v>55.51300243</v>
       </c>
       <c r="E40">
-        <v>37.6549376</v>
+        <v>37.61956064</v>
       </c>
       <c r="F40">
-        <v>55.59585221</v>
+        <v>55.4480981</v>
       </c>
       <c r="G40">
-        <v>13.05</v>
+        <v>23.28</v>
       </c>
       <c r="H40">
         <v>10</v>
       </c>
       <c r="I40">
-        <v>3.050000000000001</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>645473</v>
+        <v>622314</v>
       </c>
       <c r="B41">
-        <v>606099</v>
+        <v>634973</v>
       </c>
       <c r="C41">
-        <v>37.6549376</v>
+        <v>37.61956064</v>
       </c>
       <c r="D41">
-        <v>55.59585221</v>
+        <v>55.4480981</v>
       </c>
       <c r="E41">
-        <v>37.6727759</v>
+        <v>37.56405994</v>
       </c>
       <c r="F41">
-        <v>55.59023312</v>
+        <v>55.41088221</v>
       </c>
       <c r="G41">
-        <v>12.07</v>
+        <v>20.43</v>
       </c>
       <c r="H41">
         <v>10</v>
       </c>
       <c r="I41">
-        <v>2.07</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>606099</v>
+        <v>634973</v>
       </c>
       <c r="B42">
-        <v>634826</v>
+        <v>635726</v>
       </c>
       <c r="C42">
-        <v>37.6727759</v>
+        <v>37.56405994</v>
       </c>
       <c r="D42">
-        <v>55.59023312</v>
+        <v>55.41088221</v>
       </c>
       <c r="E42">
-        <v>37.66116984</v>
+        <v>37.5439267</v>
       </c>
       <c r="F42">
-        <v>55.58517025</v>
+        <v>55.42775261</v>
       </c>
       <c r="G42">
-        <v>12.41</v>
+        <v>14.76</v>
       </c>
       <c r="H42">
         <v>10</v>
       </c>
       <c r="I42">
-        <v>2.41</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>634826</v>
+        <v>635726</v>
       </c>
       <c r="B43">
-        <v>606037</v>
+        <v>682294</v>
       </c>
       <c r="C43">
-        <v>37.66116984</v>
+        <v>37.5439267</v>
       </c>
       <c r="D43">
-        <v>55.58517025</v>
+        <v>55.42775261</v>
       </c>
       <c r="E43">
-        <v>37.6822885</v>
+        <v>37.53939815</v>
       </c>
       <c r="F43">
-        <v>55.5795643</v>
+        <v>55.43404178</v>
       </c>
       <c r="G43">
-        <v>14.3</v>
+        <v>12.02</v>
       </c>
       <c r="H43">
         <v>10</v>
       </c>
       <c r="I43">
-        <v>4.300000000000001</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>606037</v>
+        <v>682294</v>
       </c>
       <c r="B44">
-        <v>692636</v>
+        <v>676981</v>
       </c>
       <c r="C44">
-        <v>37.6822885</v>
+        <v>37.53939815</v>
       </c>
       <c r="D44">
-        <v>55.5795643</v>
+        <v>55.43404178</v>
       </c>
       <c r="E44">
-        <v>37.73824724</v>
+        <v>37.54758808</v>
       </c>
       <c r="F44">
-        <v>55.58438191</v>
+        <v>55.42204155</v>
       </c>
       <c r="G44">
-        <v>15.34</v>
+        <v>13.74</v>
       </c>
       <c r="H44">
         <v>10</v>
       </c>
       <c r="I44">
-        <v>5.34</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>692636</v>
+        <v>676981</v>
       </c>
       <c r="B45">
-        <v>639711</v>
+        <v>634878</v>
       </c>
       <c r="C45">
-        <v>37.73824724</v>
+        <v>37.54758808</v>
       </c>
       <c r="D45">
-        <v>55.58438191</v>
+        <v>55.42204155</v>
       </c>
       <c r="E45">
-        <v>37.72730688</v>
+        <v>37.55146845</v>
       </c>
       <c r="F45">
-        <v>55.60324067</v>
+        <v>55.44994428</v>
       </c>
       <c r="G45">
-        <v>15.4</v>
+        <v>15.84</v>
       </c>
       <c r="H45">
         <v>10</v>
       </c>
       <c r="I45">
-        <v>5.4</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>639711</v>
+        <v>634878</v>
       </c>
       <c r="B46">
-        <v>698636</v>
+        <v>635295</v>
       </c>
       <c r="C46">
-        <v>37.72730688</v>
+        <v>37.55146845</v>
       </c>
       <c r="D46">
-        <v>55.60324067</v>
+        <v>55.44994428</v>
       </c>
       <c r="E46">
-        <v>37.71434751</v>
+        <v>37.54300697</v>
       </c>
       <c r="F46">
-        <v>55.62440312</v>
+        <v>55.47770248</v>
       </c>
       <c r="G46">
-        <v>11.63</v>
+        <v>17.67</v>
       </c>
       <c r="H46">
         <v>10</v>
       </c>
       <c r="I46">
-        <v>1.629999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47">
-        <v>698636</v>
-      </c>
-      <c r="B47">
-        <v>628661</v>
-      </c>
-      <c r="C47">
-        <v>37.71434751</v>
-      </c>
-      <c r="D47">
-        <v>55.62440312</v>
-      </c>
-      <c r="E47">
-        <v>37.74396706</v>
-      </c>
-      <c r="F47">
-        <v>55.59589162</v>
-      </c>
-      <c r="G47">
-        <v>17.1</v>
-      </c>
-      <c r="H47">
-        <v>10</v>
-      </c>
-      <c r="I47">
-        <v>7.100000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48">
-        <v>628661</v>
-      </c>
-      <c r="B48">
-        <v>665293</v>
-      </c>
-      <c r="C48">
-        <v>37.74396706</v>
-      </c>
-      <c r="D48">
-        <v>55.59589162</v>
-      </c>
-      <c r="E48">
-        <v>37.76785803</v>
-      </c>
-      <c r="F48">
-        <v>55.58757029</v>
-      </c>
-      <c r="G48">
-        <v>15.33</v>
-      </c>
-      <c r="H48">
-        <v>10</v>
-      </c>
-      <c r="I48">
-        <v>5.33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49">
-        <v>665293</v>
-      </c>
-      <c r="B49">
-        <v>669302</v>
-      </c>
-      <c r="C49">
-        <v>37.76785803</v>
-      </c>
-      <c r="D49">
-        <v>55.58757029</v>
-      </c>
-      <c r="E49">
-        <v>37.83931635</v>
-      </c>
-      <c r="F49">
-        <v>55.64190419</v>
-      </c>
-      <c r="G49">
-        <v>22.02</v>
-      </c>
-      <c r="H49">
-        <v>10</v>
-      </c>
-      <c r="I49">
-        <v>12.02</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50">
-        <v>669302</v>
-      </c>
-      <c r="B50">
-        <v>638488</v>
-      </c>
-      <c r="C50">
-        <v>37.83931635</v>
-      </c>
-      <c r="D50">
-        <v>55.64190419</v>
-      </c>
-      <c r="E50">
-        <v>37.8510757</v>
-      </c>
-      <c r="F50">
-        <v>55.65719354</v>
-      </c>
-      <c r="G50">
-        <v>14.5</v>
-      </c>
-      <c r="H50">
-        <v>10</v>
-      </c>
-      <c r="I50">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51">
-        <v>638488</v>
-      </c>
-      <c r="B51">
-        <v>609837</v>
-      </c>
-      <c r="C51">
-        <v>37.8510757</v>
-      </c>
-      <c r="D51">
-        <v>55.65719354</v>
-      </c>
-      <c r="E51">
-        <v>37.84255729</v>
-      </c>
-      <c r="F51">
-        <v>55.6397713</v>
-      </c>
-      <c r="G51">
-        <v>16.49</v>
-      </c>
-      <c r="H51">
-        <v>10</v>
-      </c>
-      <c r="I51">
-        <v>6.490000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52">
-        <v>609837</v>
-      </c>
-      <c r="B52">
-        <v>634921</v>
-      </c>
-      <c r="C52">
-        <v>37.84255729</v>
-      </c>
-      <c r="D52">
-        <v>55.6397713</v>
-      </c>
-      <c r="E52">
-        <v>37.84922749</v>
-      </c>
-      <c r="F52">
-        <v>55.63539166</v>
-      </c>
-      <c r="G52">
-        <v>10.8</v>
-      </c>
-      <c r="H52">
-        <v>10</v>
-      </c>
-      <c r="I52">
-        <v>0.8000000000000007</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53">
-        <v>634921</v>
-      </c>
-      <c r="B53">
-        <v>622388</v>
-      </c>
-      <c r="C53">
-        <v>37.84922749</v>
-      </c>
-      <c r="D53">
-        <v>55.63539166</v>
-      </c>
-      <c r="E53">
-        <v>37.85097935</v>
-      </c>
-      <c r="F53">
-        <v>55.63158136</v>
-      </c>
-      <c r="G53">
-        <v>11.77</v>
-      </c>
-      <c r="H53">
-        <v>10</v>
-      </c>
-      <c r="I53">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54">
-        <v>622388</v>
-      </c>
-      <c r="B54">
-        <v>634986</v>
-      </c>
-      <c r="C54">
-        <v>37.85097935</v>
-      </c>
-      <c r="D54">
-        <v>55.63158136</v>
-      </c>
-      <c r="E54">
-        <v>37.85142607</v>
-      </c>
-      <c r="F54">
-        <v>55.63123099</v>
-      </c>
-      <c r="G54">
-        <v>10.73</v>
-      </c>
-      <c r="H54">
-        <v>10</v>
-      </c>
-      <c r="I54">
-        <v>0.7300000000000004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55">
-        <v>634986</v>
-      </c>
-      <c r="B55">
-        <v>663189</v>
-      </c>
-      <c r="C55">
-        <v>37.85142607</v>
-      </c>
-      <c r="D55">
-        <v>55.63123099</v>
-      </c>
-      <c r="E55">
-        <v>37.84682744</v>
-      </c>
-      <c r="F55">
-        <v>55.62356223</v>
-      </c>
-      <c r="G55">
-        <v>13.06</v>
-      </c>
-      <c r="H55">
-        <v>10</v>
-      </c>
-      <c r="I55">
-        <v>3.06</v>
+        <v>7.670000000000002</v>
       </c>
     </row>
   </sheetData>
